--- a/regression/IntroductionToRegression/regressionData1.xlsx
+++ b/regression/IntroductionToRegression/regressionData1.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interest rates and home prices" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="trendline Calculation" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Mortgage interest rates and home prices</t>
   </si>
@@ -39,6 +40,168 @@
   <si>
     <t xml:space="preserve">Median home price</t>
   </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xi-Xavg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yi-Yavg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(xi-Xavg)*(yi-Yavg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(xi-Xavg)**2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sum of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(xi-Xavg)*(yi-Yavg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sum of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(xi-Xavg)**2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavg = </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(xi-Xavg)*(yi-Yavg)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF33FF99"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (xi-X)**2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Yavg =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B = Yavg – </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Xavg</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -49,7 +212,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,29 +260,98 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
-      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF3333FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF33FF99"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -148,12 +380,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,16 +401,76 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -190,7 +482,537 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF3333FF"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Mortgage interest rates v/s home prices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Interest rates and home prices'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median home price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Interest rates and home prices'!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Interest rates and home prices'!$C$4:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>183800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>258200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>309800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>329800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="64685126"/>
+        <c:axId val="70010292"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64685126"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mortgage interest rates</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.432429403854774"/>
+              <c:y val="0.919061583577713"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70010292"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70010292"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t> Home prices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="\$#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64685126"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.658317924581162"/>
+          <c:y val="0.72909150541161"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>325440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2559600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="325440" y="3577320"/>
+        <a:ext cx="6424920" cy="4296240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -200,23 +1022,23 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -248,231 +1070,200 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>1988</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>10.3</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="6" t="n">
         <v>183800</v>
       </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>1989</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>10.3</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="6" t="n">
         <v>183200</v>
       </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>10.1</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="6" t="n">
         <v>174900</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>1991</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="5" t="n">
         <v>9.3</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="6" t="n">
         <v>173500</v>
       </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>1992</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>8.4</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="6" t="n">
         <v>172900</v>
       </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>1993</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>7.3</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="6" t="n">
         <v>173200</v>
       </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>1994</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="5" t="n">
         <v>8.4</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="6" t="n">
         <v>173200</v>
       </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>1995</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="5" t="n">
         <v>7.9</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="6" t="n">
         <v>169700</v>
       </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>1996</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="5" t="n">
         <v>7.6</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="6" t="n">
         <v>174500</v>
       </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>1997</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="5" t="n">
         <v>7.6</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="6" t="n">
         <v>177900</v>
       </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>1998</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="5" t="n">
         <v>6.9</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="6" t="n">
         <v>188100</v>
       </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>1999</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="5" t="n">
         <v>7.4</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="6" t="n">
         <v>203200</v>
       </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="5" t="n">
         <v>8.1</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="6" t="n">
         <v>230200</v>
       </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>2001</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="6" t="n">
         <v>258200</v>
       </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>2002</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="5" t="n">
         <v>6.5</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="6" t="n">
         <v>309800</v>
       </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>2003</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="5" t="n">
         <v>5.8</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="6" t="n">
         <v>329800</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D19" s="5"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -486,5 +1277,540 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.51821862348178"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6194331983806"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>183800</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <f aca="false">A2-$A$18</f>
+        <v>2.24375</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <f aca="false">B2-$B$18</f>
+        <v>-20956.25</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <f aca="false">C2*D2</f>
+        <v>-47020.5859375</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <f aca="false">(A2-$A$18)*(A2-$A$18)</f>
+        <v>5.0344140625</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>183200</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <f aca="false">A3-$A$18</f>
+        <v>2.24375</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <f aca="false">B3-$B$18</f>
+        <v>-21556.25</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <f aca="false">C3*D3</f>
+        <v>-48366.8359375</v>
+      </c>
+      <c r="F3" s="14" t="n">
+        <f aca="false">(A3-$A$18)*(A3-$A$18)</f>
+        <v>5.0344140625</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>174900</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <f aca="false">A4-$A$18</f>
+        <v>2.04375</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <f aca="false">B4-$B$18</f>
+        <v>-29856.25</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <f aca="false">C4*D4</f>
+        <v>-61018.7109375</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <f aca="false">(A4-$A$18)*(A4-$A$18)</f>
+        <v>4.1769140625</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>173500</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <f aca="false">A5-$A$18</f>
+        <v>1.24375</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <f aca="false">B5-$B$18</f>
+        <v>-31256.25</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <f aca="false">C5*D5</f>
+        <v>-38874.9609375</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <f aca="false">(A5-$A$18)*(A5-$A$18)</f>
+        <v>1.5469140625</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>172900</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <f aca="false">A6-$A$18</f>
+        <v>0.34375</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <f aca="false">B6-$B$18</f>
+        <v>-31856.25</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <f aca="false">C6*D6</f>
+        <v>-10950.5859375</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <f aca="false">(A6-$A$18)*(A6-$A$18)</f>
+        <v>0.1181640625</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>173200</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <f aca="false">A7-$A$18</f>
+        <v>-0.756250000000001</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <f aca="false">B7-$B$18</f>
+        <v>-31556.25</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <f aca="false">C7*D7</f>
+        <v>23864.4140625</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <f aca="false">(A7-$A$18)*(A7-$A$18)</f>
+        <v>0.571914062500001</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>173200</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <f aca="false">A8-$A$18</f>
+        <v>0.34375</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <f aca="false">B8-$B$18</f>
+        <v>-31556.25</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <f aca="false">C8*D8</f>
+        <v>-10847.4609375</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <f aca="false">(A8-$A$18)*(A8-$A$18)</f>
+        <v>0.1181640625</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>169700</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <f aca="false">A9-$A$18</f>
+        <v>-0.15625</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <f aca="false">B9-$B$18</f>
+        <v>-35056.25</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <f aca="false">C9*D9</f>
+        <v>5477.5390625</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <f aca="false">(A9-$A$18)*(A9-$A$18)</f>
+        <v>0.0244140625</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>174500</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <f aca="false">A10-$A$18</f>
+        <v>-0.456250000000001</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <f aca="false">B10-$B$18</f>
+        <v>-30256.25</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <f aca="false">C10*D10</f>
+        <v>13804.4140625</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <f aca="false">(A10-$A$18)*(A10-$A$18)</f>
+        <v>0.208164062500001</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>177900</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <f aca="false">A11-$A$18</f>
+        <v>-0.456250000000001</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <f aca="false">B11-$B$18</f>
+        <v>-26856.25</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <f aca="false">C11*D11</f>
+        <v>12253.1640625</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <f aca="false">(A11-$A$18)*(A11-$A$18)</f>
+        <v>0.208164062500001</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>188100</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <f aca="false">A12-$A$18</f>
+        <v>-1.15625</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <f aca="false">B12-$B$18</f>
+        <v>-16656.25</v>
+      </c>
+      <c r="E12" s="13" t="n">
+        <f aca="false">C12*D12</f>
+        <v>19258.7890625</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <f aca="false">(A12-$A$18)*(A12-$A$18)</f>
+        <v>1.3369140625</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>203200</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <f aca="false">A13-$A$18</f>
+        <v>-0.65625</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <f aca="false">B13-$B$18</f>
+        <v>-1556.25</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <f aca="false">C13*D13</f>
+        <v>1021.2890625</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <f aca="false">(A13-$A$18)*(A13-$A$18)</f>
+        <v>0.4306640625</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>230200</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <f aca="false">A14-$A$18</f>
+        <v>0.0437499999999993</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <f aca="false">B14-$B$18</f>
+        <v>25443.75</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <f aca="false">C14*D14</f>
+        <v>1113.16406249998</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <f aca="false">(A14-$A$18)*(A14-$A$18)</f>
+        <v>0.00191406249999994</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="n">
+        <v>258200</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <f aca="false">A15-$A$18</f>
+        <v>-1.05625</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <f aca="false">B15-$B$18</f>
+        <v>53443.75</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <f aca="false">C15*D15</f>
+        <v>-56449.9609375</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <f aca="false">(A15-$A$18)*(A15-$A$18)</f>
+        <v>1.1156640625</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>309800</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <f aca="false">A16-$A$18</f>
+        <v>-1.55625</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <f aca="false">B16-$B$18</f>
+        <v>105043.75</v>
+      </c>
+      <c r="E16" s="13" t="n">
+        <f aca="false">C16*D16</f>
+        <v>-163474.3359375</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <f aca="false">(A16-$A$18)*(A16-$A$18)</f>
+        <v>2.4219140625</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>329800</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <f aca="false">A17-$A$18</f>
+        <v>-2.25625</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <f aca="false">B17-$B$18</f>
+        <v>125043.75</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <f aca="false">C17*D17</f>
+        <v>-282129.9609375</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <f aca="false">(A17-$A$18)*(A17-$A$18)</f>
+        <v>5.0906640625</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="n">
+        <f aca="false">AVERAGE(A2:A17)</f>
+        <v>8.05625</v>
+      </c>
+      <c r="B18" s="16" t="n">
+        <f aca="false">AVERAGE(B2:B17)</f>
+        <v>204756.25</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="n">
+        <f aca="false">SUM(E2:E17)</f>
+        <v>-642340.625</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <f aca="false">SUM(F2:F17)</f>
+        <v>27.439375</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="20" t="n">
+        <v>-642340.625</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>27.439375</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>8.05625</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <f aca="false">E18/F18</f>
+        <v>-23409.4481014965</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="n">
+        <v>204756.25</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <f aca="false">B18-F22*A18</f>
+        <v>393348.616267681</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/regression/IntroductionToRegression/regressionData1.xlsx
+++ b/regression/IntroductionToRegression/regressionData1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Interest rates and home prices" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,18 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Mortgage interest rates and home prices</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">X VARIABLE</t>
   </si>
   <si>
     <t xml:space="preserve">Y VARIABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
   </si>
   <si>
     <t xml:space="preserve">interest rate (%)</t>
@@ -207,12 +201,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="\$#,##0"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -261,6 +256,7 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -270,7 +266,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -380,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -413,11 +416,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,15 +444,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,15 +460,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,7 +544,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -598,7 +597,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Interest rates and home prices'!$C$3</c:f>
+              <c:f>'Interest rates and home prices'!$B$3:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -628,6 +627,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -651,68 +651,68 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>'Interest rates and home prices'!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Interest rates and home prices'!$B$4:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Interest rates and home prices'!$C$4:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
                   <c:v>183800</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -765,11 +765,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="64685126"/>
-        <c:axId val="70010292"/>
+        <c:axId val="4561863"/>
+        <c:axId val="97051432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64685126"/>
+        <c:axId val="4561863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,13 +815,13 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.432429403854774"/>
-              <c:y val="0.919061583577713"/>
+              <c:x val="0.432346386501114"/>
+              <c:y val="0.919027093596059"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -850,12 +850,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70010292"/>
+        <c:crossAx val="97051432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70010292"/>
+        <c:axId val="97051432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +908,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="\$#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="\$#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -937,7 +937,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64685126"/>
+        <c:crossAx val="4561863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -951,6 +951,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -959,6 +960,7 @@
           <c:y val="0.72909150541161"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -990,10 +992,10 @@
       <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2559600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1002,7 +1004,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="325440" y="3577320"/>
-        <a:ext cx="6424920" cy="4296240"/>
+        <a:ext cx="5653440" cy="4676760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1020,256 +1022,195 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>1988</v>
-      </c>
-      <c r="B4" s="5" t="n">
+      <c r="A4" s="5" t="n">
         <v>10.3</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="B4" s="6" t="n">
         <v>183800</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B5" s="5" t="n">
+      <c r="A5" s="5" t="n">
         <v>10.3</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="B5" s="6" t="n">
         <v>183200</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="A6" s="5" t="n">
         <v>10.1</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="B6" s="6" t="n">
         <v>174900</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="A7" s="5" t="n">
         <v>9.3</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="B7" s="6" t="n">
         <v>173500</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="A8" s="5" t="n">
         <v>8.4</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="B8" s="6" t="n">
         <v>172900</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>1993</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="5" t="n">
         <v>7.3</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="B9" s="6" t="n">
         <v>173200</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>1994</v>
-      </c>
-      <c r="B10" s="5" t="n">
+      <c r="A10" s="5" t="n">
         <v>8.4</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="B10" s="6" t="n">
         <v>173200</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B11" s="5" t="n">
+      <c r="A11" s="5" t="n">
         <v>7.9</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="B11" s="6" t="n">
         <v>169700</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>1996</v>
-      </c>
-      <c r="B12" s="5" t="n">
+      <c r="A12" s="5" t="n">
         <v>7.6</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="B12" s="6" t="n">
         <v>174500</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B13" s="5" t="n">
+      <c r="A13" s="5" t="n">
         <v>7.6</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="6" t="n">
         <v>177900</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B14" s="5" t="n">
+      <c r="A14" s="5" t="n">
         <v>6.9</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="B14" s="6" t="n">
         <v>188100</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B15" s="5" t="n">
+      <c r="A15" s="5" t="n">
         <v>7.4</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="B15" s="6" t="n">
         <v>203200</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="5" t="n">
+      <c r="A16" s="5" t="n">
         <v>8.1</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="B16" s="6" t="n">
         <v>230200</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B17" s="5" t="n">
+      <c r="A17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="B17" s="6" t="n">
         <v>258200</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B18" s="5" t="n">
+      <c r="A18" s="5" t="n">
         <v>6.5</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="B18" s="6" t="n">
         <v>309800</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B19" s="5" t="n">
+      <c r="A19" s="5" t="n">
         <v>5.8</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="B19" s="6" t="n">
         <v>329800</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C19" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <printOptions headings="true" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1288,38 +1229,39 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.51821862348178"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6194331983806"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -1723,7 +1665,7 @@
         <f aca="false">AVERAGE(A2:A17)</f>
         <v>8.05625</v>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="15" t="n">
         <f aca="false">AVERAGE(B2:B17)</f>
         <v>204756.25</v>
       </c>
@@ -1733,7 +1675,7 @@
         <f aca="false">SUM(E2:E17)</f>
         <v>-642340.625</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="16" t="n">
         <f aca="false">SUM(F2:F17)</f>
         <v>27.439375</v>
       </c>
@@ -1743,11 +1685,11 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>13</v>
+      <c r="E19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,10 +1697,10 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="19" t="n">
         <v>-642340.625</v>
       </c>
-      <c r="F20" s="21" t="n">
+      <c r="F20" s="20" t="n">
         <v>27.439375</v>
       </c>
     </row>
@@ -1772,15 +1714,15 @@
     </row>
     <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="13" t="n">
         <v>8.05625</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="22" t="s">
-        <v>15</v>
+      <c r="E22" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">E18/F18</f>
@@ -1789,7 +1731,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="13" t="n">
         <v>204756.25</v>
@@ -1797,7 +1739,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" s="15" t="n">
         <f aca="false">B18-F22*A18</f>

--- a/regression/IntroductionToRegression/regressionData1.xlsx
+++ b/regression/IntroductionToRegression/regressionData1.xlsx
@@ -29,10 +29,10 @@
     <t xml:space="preserve">Y VARIABLE</t>
   </si>
   <si>
-    <t xml:space="preserve">interest rate (%)</t>
+    <t xml:space="preserve">Median home price</t>
   </si>
   <si>
-    <t xml:space="preserve">Median home price</t>
+    <t xml:space="preserve">interest rate (%)</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -201,11 +201,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0"/>
-    <numFmt numFmtId="167" formatCode="\$#,##0"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -256,7 +255,12 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -266,14 +270,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -383,23 +380,19 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,7 +425,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,7 +493,7 @@
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -580,7 +573,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Mortgage interest rates v/s home prices</a:t>
+              <a:t>Home Prices v/sMortgage Interest Rates</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -597,22 +590,22 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Interest rates and home prices'!$B$3:$B$3</c:f>
+              <c:f>'Interest rates and home prices'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Median home price</c:v>
+                  <c:v>Y VARIABLE interest rate (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -622,12 +615,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -637,10 +629,11 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="18000">
                 <a:solidFill>
-                  <a:srgbClr val="004586"/>
+                  <a:srgbClr val="ff420e"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
@@ -651,7 +644,64 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Interest rates and home prices'!$A$4:$A$19</c:f>
+              <c:f>'Interest rates and home prices'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>183800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>258200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>309800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>329800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Interest rates and home prices'!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -705,71 +755,14 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Interest rates and home prices'!$B$4:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>183800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>183200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>174900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172900</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>173200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>173200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>169700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>174500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>177900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>188100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>203200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>230200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>258200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>309800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4561863"/>
-        <c:axId val="97051432"/>
+        <c:axId val="90471065"/>
+        <c:axId val="6936253"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4561863"/>
+        <c:axId val="90471065"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,22 +799,14 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Mortgage interest rates</a:t>
+                  <a:t>Home Prices</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.432346386501114"/>
-              <c:y val="0.919027093596059"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="\$#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -850,12 +835,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97051432"/>
+        <c:crossAx val="6936253"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97051432"/>
+        <c:axId val="6936253"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,14 +886,14 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t> Home prices</a:t>
+                  <a:t>Mortgage Interest Rates</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="\$#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -937,7 +922,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4561863"/>
+        <c:crossAx val="90471065"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -950,24 +935,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.658317924581162"/>
-          <c:y val="0.72909150541161"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
   </c:chart>
@@ -987,15 +954,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2559600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:colOff>2326680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1003,8 +970,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="325440" y="3577320"/>
-        <a:ext cx="5653440" cy="4676760"/>
+        <a:off x="0" y="3227400"/>
+        <a:ext cx="5765040" cy="3240360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1022,193 +989,171 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4" t="n">
+        <v>183800</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
+        <v>183200</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>10.3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>183800</v>
-      </c>
-      <c r="C4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>183200</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="n">
+        <v>174900</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>174900</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="n">
+        <v>173500</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>173500</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="n">
+        <v>172900</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
+        <v>173200</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>173200</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>8.4</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>172900</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>173200</v>
-      </c>
-      <c r="C9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>173200</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="n">
+        <v>169700</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>169700</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="n">
+        <v>174500</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
+        <v>177900</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>7.6</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>174500</v>
-      </c>
-      <c r="C12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>177900</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="A13" s="4" t="n">
+        <v>188100</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>188100</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="n">
+        <v>203200</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>203200</v>
-      </c>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="n">
+        <v>230200</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>230200</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="n">
+        <v>258200</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>258200</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="n">
+        <v>309800</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>309800</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A18" s="4" t="n">
+        <v>329800</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>5.8</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>329800</v>
-      </c>
-      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="true" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1230,7 +1175,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1239,511 +1184,511 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="10" t="n">
+        <v>183800</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>10.3</v>
       </c>
-      <c r="B2" s="12" t="n">
-        <v>183800</v>
-      </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <f aca="false">A2-$A$18</f>
+        <v>-20956.25</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <f aca="false">B2-$B$18</f>
         <v>2.24375</v>
       </c>
-      <c r="D2" s="13" t="n">
-        <f aca="false">B2-$B$18</f>
-        <v>-20956.25</v>
-      </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <f aca="false">C2*D2</f>
         <v>-47020.5859375</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="13" t="n">
         <f aca="false">(A2-$A$18)*(A2-$A$18)</f>
-        <v>5.0344140625</v>
-      </c>
-      <c r="G2" s="10"/>
+        <v>439164414.0625</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
+        <v>183200</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>10.3</v>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>183200</v>
-      </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <f aca="false">A3-$A$18</f>
+        <v>-21556.25</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <f aca="false">B3-$B$18</f>
         <v>2.24375</v>
       </c>
-      <c r="D3" s="13" t="n">
-        <f aca="false">B3-$B$18</f>
-        <v>-21556.25</v>
-      </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="12" t="n">
         <f aca="false">C3*D3</f>
         <v>-48366.8359375</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="13" t="n">
         <f aca="false">(A3-$A$18)*(A3-$A$18)</f>
-        <v>5.0344140625</v>
-      </c>
-      <c r="G3" s="10"/>
+        <v>464671914.0625</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="10" t="n">
+        <v>174900</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>10.1</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>174900</v>
-      </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <f aca="false">A4-$A$18</f>
+        <v>-29856.25</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <f aca="false">B4-$B$18</f>
         <v>2.04375</v>
       </c>
-      <c r="D4" s="13" t="n">
-        <f aca="false">B4-$B$18</f>
-        <v>-29856.25</v>
-      </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="12" t="n">
         <f aca="false">C4*D4</f>
         <v>-61018.7109375</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="13" t="n">
         <f aca="false">(A4-$A$18)*(A4-$A$18)</f>
-        <v>4.1769140625</v>
-      </c>
-      <c r="G4" s="10"/>
+        <v>891395664.0625</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="10" t="n">
+        <v>173500</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <v>9.3</v>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>173500</v>
-      </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <f aca="false">A5-$A$18</f>
+        <v>-31256.25</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <f aca="false">B5-$B$18</f>
         <v>1.24375</v>
       </c>
-      <c r="D5" s="13" t="n">
-        <f aca="false">B5-$B$18</f>
-        <v>-31256.25</v>
-      </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="12" t="n">
         <f aca="false">C5*D5</f>
         <v>-38874.9609375</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="13" t="n">
         <f aca="false">(A5-$A$18)*(A5-$A$18)</f>
-        <v>1.5469140625</v>
-      </c>
-      <c r="G5" s="10"/>
+        <v>976953164.0625</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10" t="n">
+        <v>172900</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <v>8.4</v>
       </c>
-      <c r="B6" s="12" t="n">
-        <v>172900</v>
-      </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <f aca="false">A6-$A$18</f>
+        <v>-31856.25</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <f aca="false">B6-$B$18</f>
         <v>0.34375</v>
       </c>
-      <c r="D6" s="13" t="n">
-        <f aca="false">B6-$B$18</f>
-        <v>-31856.25</v>
-      </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="12" t="n">
         <f aca="false">C6*D6</f>
         <v>-10950.5859375</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="13" t="n">
         <f aca="false">(A6-$A$18)*(A6-$A$18)</f>
-        <v>0.1181640625</v>
-      </c>
-      <c r="G6" s="10"/>
+        <v>1014820664.0625</v>
+      </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="10" t="n">
+        <v>173200</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <v>7.3</v>
       </c>
-      <c r="B7" s="12" t="n">
-        <v>173200</v>
-      </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <f aca="false">A7-$A$18</f>
+        <v>-31556.25</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="false">B7-$B$18</f>
         <v>-0.756250000000001</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <f aca="false">B7-$B$18</f>
-        <v>-31556.25</v>
-      </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="12" t="n">
         <f aca="false">C7*D7</f>
         <v>23864.4140625</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="13" t="n">
         <f aca="false">(A7-$A$18)*(A7-$A$18)</f>
-        <v>0.571914062500001</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>995796914.0625</v>
+      </c>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="10" t="n">
+        <v>173200</v>
+      </c>
+      <c r="B8" s="11" t="n">
         <v>8.4</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>173200</v>
-      </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <f aca="false">A8-$A$18</f>
+        <v>-31556.25</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <f aca="false">B8-$B$18</f>
         <v>0.34375</v>
       </c>
-      <c r="D8" s="13" t="n">
-        <f aca="false">B8-$B$18</f>
-        <v>-31556.25</v>
-      </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="12" t="n">
         <f aca="false">C8*D8</f>
         <v>-10847.4609375</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="13" t="n">
         <f aca="false">(A8-$A$18)*(A8-$A$18)</f>
-        <v>0.1181640625</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>995796914.0625</v>
+      </c>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="10" t="n">
+        <v>169700</v>
+      </c>
+      <c r="B9" s="11" t="n">
         <v>7.9</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>169700</v>
-      </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <f aca="false">A9-$A$18</f>
+        <v>-35056.25</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">B9-$B$18</f>
         <v>-0.15625</v>
       </c>
-      <c r="D9" s="13" t="n">
-        <f aca="false">B9-$B$18</f>
-        <v>-35056.25</v>
-      </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="12" t="n">
         <f aca="false">C9*D9</f>
         <v>5477.5390625</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="13" t="n">
         <f aca="false">(A9-$A$18)*(A9-$A$18)</f>
-        <v>0.0244140625</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>1228940664.0625</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="10" t="n">
+        <v>174500</v>
+      </c>
+      <c r="B10" s="11" t="n">
         <v>7.6</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>174500</v>
-      </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <f aca="false">A10-$A$18</f>
+        <v>-30256.25</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="false">B10-$B$18</f>
         <v>-0.456250000000001</v>
       </c>
-      <c r="D10" s="13" t="n">
-        <f aca="false">B10-$B$18</f>
-        <v>-30256.25</v>
-      </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="12" t="n">
         <f aca="false">C10*D10</f>
         <v>13804.4140625</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="13" t="n">
         <f aca="false">(A10-$A$18)*(A10-$A$18)</f>
-        <v>0.208164062500001</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>915440664.0625</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="10" t="n">
+        <v>177900</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <v>7.6</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>177900</v>
-      </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="12" t="n">
         <f aca="false">A11-$A$18</f>
+        <v>-26856.25</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">B11-$B$18</f>
         <v>-0.456250000000001</v>
       </c>
-      <c r="D11" s="13" t="n">
-        <f aca="false">B11-$B$18</f>
-        <v>-26856.25</v>
-      </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="12" t="n">
         <f aca="false">C11*D11</f>
         <v>12253.1640625</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="13" t="n">
         <f aca="false">(A11-$A$18)*(A11-$A$18)</f>
-        <v>0.208164062500001</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>721258164.0625</v>
+      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="10" t="n">
+        <v>188100</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <v>6.9</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>188100</v>
-      </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="12" t="n">
         <f aca="false">A12-$A$18</f>
+        <v>-16656.25</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <f aca="false">B12-$B$18</f>
         <v>-1.15625</v>
       </c>
-      <c r="D12" s="13" t="n">
-        <f aca="false">B12-$B$18</f>
-        <v>-16656.25</v>
-      </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="12" t="n">
         <f aca="false">C12*D12</f>
         <v>19258.7890625</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="13" t="n">
         <f aca="false">(A12-$A$18)*(A12-$A$18)</f>
-        <v>1.3369140625</v>
-      </c>
-      <c r="G12" s="10"/>
+        <v>277430664.0625</v>
+      </c>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="10" t="n">
+        <v>203200</v>
+      </c>
+      <c r="B13" s="11" t="n">
         <v>7.4</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>203200</v>
-      </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="12" t="n">
         <f aca="false">A13-$A$18</f>
+        <v>-1556.25</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">B13-$B$18</f>
         <v>-0.65625</v>
       </c>
-      <c r="D13" s="13" t="n">
-        <f aca="false">B13-$B$18</f>
-        <v>-1556.25</v>
-      </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="12" t="n">
         <f aca="false">C13*D13</f>
         <v>1021.2890625</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="13" t="n">
         <f aca="false">(A13-$A$18)*(A13-$A$18)</f>
-        <v>0.4306640625</v>
+        <v>2421914.0625</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="10" t="n">
+        <v>230200</v>
+      </c>
+      <c r="B14" s="11" t="n">
         <v>8.1</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>230200</v>
-      </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="12" t="n">
         <f aca="false">A14-$A$18</f>
+        <v>25443.75</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <f aca="false">B14-$B$18</f>
         <v>0.0437499999999993</v>
       </c>
-      <c r="D14" s="13" t="n">
-        <f aca="false">B14-$B$18</f>
-        <v>25443.75</v>
-      </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="12" t="n">
         <f aca="false">C14*D14</f>
         <v>1113.16406249998</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F14" s="13" t="n">
         <f aca="false">(A14-$A$18)*(A14-$A$18)</f>
-        <v>0.00191406249999994</v>
+        <v>647384414.0625</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="10" t="n">
+        <v>258200</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>258200</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="12" t="n">
         <f aca="false">A15-$A$18</f>
+        <v>53443.75</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <f aca="false">B15-$B$18</f>
         <v>-1.05625</v>
       </c>
-      <c r="D15" s="13" t="n">
-        <f aca="false">B15-$B$18</f>
-        <v>53443.75</v>
-      </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="12" t="n">
         <f aca="false">C15*D15</f>
         <v>-56449.9609375</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="13" t="n">
         <f aca="false">(A15-$A$18)*(A15-$A$18)</f>
-        <v>1.1156640625</v>
+        <v>2856234414.0625</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="10" t="n">
+        <v>309800</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <v>6.5</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>309800</v>
-      </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <f aca="false">A16-$A$18</f>
+        <v>105043.75</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <f aca="false">B16-$B$18</f>
         <v>-1.55625</v>
       </c>
-      <c r="D16" s="13" t="n">
-        <f aca="false">B16-$B$18</f>
-        <v>105043.75</v>
-      </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <f aca="false">C16*D16</f>
         <v>-163474.3359375</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="13" t="n">
         <f aca="false">(A16-$A$18)*(A16-$A$18)</f>
-        <v>2.4219140625</v>
+        <v>11034189414.0625</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="10" t="n">
+        <v>329800</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <v>5.8</v>
       </c>
-      <c r="B17" s="12" t="n">
-        <v>329800</v>
-      </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="12" t="n">
         <f aca="false">A17-$A$18</f>
+        <v>125043.75</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <f aca="false">B17-$B$18</f>
         <v>-2.25625</v>
       </c>
-      <c r="D17" s="13" t="n">
-        <f aca="false">B17-$B$18</f>
-        <v>125043.75</v>
-      </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="12" t="n">
         <f aca="false">C17*D17</f>
         <v>-282129.9609375</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="13" t="n">
         <f aca="false">(A17-$A$18)*(A17-$A$18)</f>
-        <v>5.0906640625</v>
+        <v>15635939414.0625</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="14" t="n">
         <f aca="false">AVERAGE(A2:A17)</f>
+        <v>204756.25</v>
+      </c>
+      <c r="B18" s="14" t="n">
+        <f aca="false">AVERAGE(B2:B17)</f>
         <v>8.05625</v>
       </c>
-      <c r="B18" s="15" t="n">
-        <f aca="false">AVERAGE(B2:B17)</f>
-        <v>204756.25</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="n">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="n">
         <f aca="false">SUM(E2:E17)</f>
         <v>-642340.625</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="15" t="n">
         <f aca="false">SUM(F2:F17)</f>
+        <v>39097839375</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="18" t="n">
+        <v>-642340.625</v>
+      </c>
+      <c r="F20" s="19" t="n">
         <v>27.439375</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19" t="n">
-        <v>-642340.625</v>
-      </c>
-      <c r="F20" s="20" t="n">
-        <v>27.439375</v>
-      </c>
-    </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="13" t="n">
+      <c r="B22" s="12" t="n">
         <v>8.05625</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="21" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="14" t="n">
         <f aca="false">E18/F18</f>
-        <v>-23409.4481014965</v>
+        <v>-1.64290568294351E-005</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="12" t="n">
         <v>204756.25</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F23" s="14" t="n">
         <f aca="false">B18-F22*A18</f>
-        <v>393348.616267681</v>
+        <v>11.420202067432</v>
       </c>
     </row>
   </sheetData>
